--- a/AAII_Financials/Quarterly/ALFIQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALFIQ_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -923,7 +923,7 @@
         <v>200</v>
       </c>
       <c r="J15" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="K15" s="3">
         <v>200</v>
@@ -962,7 +962,7 @@
         <v>2400</v>
       </c>
       <c r="J17" s="3">
-        <v>2900</v>
+        <v>3500</v>
       </c>
       <c r="K17" s="3">
         <v>700</v>
@@ -991,7 +991,7 @@
         <v>-2400</v>
       </c>
       <c r="J18" s="3">
-        <v>-2900</v>
+        <v>-3500</v>
       </c>
       <c r="K18" s="3">
         <v>-700</v>
@@ -1033,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K20" s="3">
         <v>100</v>
@@ -1062,7 +1062,7 @@
         <v>-2100</v>
       </c>
       <c r="J21" s="3">
-        <v>-2500</v>
+        <v>-2800</v>
       </c>
       <c r="K21" s="3">
         <v>-500</v>
@@ -1120,7 +1120,7 @@
         <v>-2700</v>
       </c>
       <c r="J23" s="3">
-        <v>-5000</v>
+        <v>-5500</v>
       </c>
       <c r="K23" s="3">
         <v>-700</v>
@@ -1207,7 +1207,7 @@
         <v>-2700</v>
       </c>
       <c r="J26" s="3">
-        <v>-5000</v>
+        <v>-5500</v>
       </c>
       <c r="K26" s="3">
         <v>-700</v>
@@ -1236,7 +1236,7 @@
         <v>-2700</v>
       </c>
       <c r="J27" s="3">
-        <v>-5000</v>
+        <v>-5500</v>
       </c>
       <c r="K27" s="3">
         <v>-700</v>
@@ -1381,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K32" s="3">
         <v>-100</v>
@@ -1410,7 +1410,7 @@
         <v>-2700</v>
       </c>
       <c r="J33" s="3">
-        <v>-5000</v>
+        <v>-5500</v>
       </c>
       <c r="K33" s="3">
         <v>-700</v>
@@ -1468,7 +1468,7 @@
         <v>-2700</v>
       </c>
       <c r="J35" s="3">
-        <v>-5000</v>
+        <v>-5500</v>
       </c>
       <c r="K35" s="3">
         <v>-700</v>
@@ -2616,7 +2616,7 @@
         <v>-2700</v>
       </c>
       <c r="J81" s="3">
-        <v>-5000</v>
+        <v>-5500</v>
       </c>
       <c r="K81" s="3">
         <v>-700</v>
@@ -2658,7 +2658,7 @@
         <v>200</v>
       </c>
       <c r="J83" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="K83" s="3">
         <v>100</v>
@@ -2832,7 +2832,7 @@
         <v>-1900</v>
       </c>
       <c r="J89" s="3">
-        <v>-2100</v>
+        <v>-3200</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
-        <v>200</v>
+        <v>-1700</v>
       </c>
       <c r="K94" s="3">
         <v>-400</v>
@@ -3119,7 +3119,7 @@
         <v>2100</v>
       </c>
       <c r="J100" s="3">
-        <v>1900</v>
+        <v>4800</v>
       </c>
       <c r="K100" s="3">
         <v>400</v>

--- a/AAII_Financials/Quarterly/ALFIQ_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/ALFIQ_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>ALFIQ</t>
   </si>
@@ -2855,17 +2855,17 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>5</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="G91" s="3">
-        <v>-1100</v>
+        <v>-4600</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -2874,7 +2874,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>5</v>
